--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_af_asdf_af_DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_af_asdf_af_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC3968B-2BB5-455C-A7D8-45DC2FD13277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECC9750-33A6-407D-8ED0-9698BC4DD5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="Service_2E" sheetId="10" r:id="rId7"/>
     <sheet name="Service_27" sheetId="16" r:id="rId8"/>
     <sheet name="Service_28" sheetId="11" r:id="rId9"/>
-    <sheet name="Service_3E" sheetId="12" r:id="rId10"/>
-    <sheet name="Service_85" sheetId="15" r:id="rId11"/>
-    <sheet name="Service_31" sheetId="13" r:id="rId12"/>
+    <sheet name="Service_31" sheetId="13" r:id="rId10"/>
+    <sheet name="Service_3E" sheetId="12" r:id="rId11"/>
+    <sheet name="Service_85" sheetId="15" r:id="rId12"/>
     <sheet name="CanTP" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="106">
   <si>
     <t>NRC</t>
   </si>
@@ -1246,6 +1246,491 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:V111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U55" sqref="U55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="18.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="29"/>
+      <c r="N1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="N3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="7"/>
+      <c r="V3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="N4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="N5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="N6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:V111"/>
@@ -1720,497 +2205,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:N6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="29"/>
-      <c r="N1" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="N3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="T3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="N4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="T4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="N5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="N6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:U1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:V111"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
@@ -3180,8 +3180,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3480,9 +3480,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="7" t="s">
-        <v>105</v>
-      </c>
+      <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_af_asdf_af_DCOM.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_af_asdf_af_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECC9750-33A6-407D-8ED0-9698BC4DD5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8884ECF4-C31D-49F4-9187-1040BCB7BAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26775" yWindow="2580" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="Service_2E" sheetId="10" r:id="rId7"/>
     <sheet name="Service_27" sheetId="16" r:id="rId8"/>
     <sheet name="Service_28" sheetId="11" r:id="rId9"/>
-    <sheet name="Service_31" sheetId="13" r:id="rId10"/>
-    <sheet name="Service_3E" sheetId="12" r:id="rId11"/>
-    <sheet name="Service_85" sheetId="15" r:id="rId12"/>
+    <sheet name="Service_3E" sheetId="12" r:id="rId10"/>
+    <sheet name="Service_85" sheetId="15" r:id="rId11"/>
+    <sheet name="Service_31" sheetId="13" r:id="rId12"/>
     <sheet name="CanTP" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="117">
   <si>
     <t>NRC</t>
   </si>
@@ -364,6 +364,39 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>vgvsf</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>fsdfaf</t>
+  </si>
+  <si>
+    <t>5111</t>
+  </si>
+  <si>
+    <t>fasfa</t>
+  </si>
+  <si>
+    <t>f186</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>Crank</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Running</t>
   </si>
 </sst>
 </file>
@@ -918,10 +951,10 @@
         <v>92</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -929,10 +962,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -940,10 +973,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -951,7 +984,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>98</v>
@@ -1006,7 +1039,7 @@
         <v>93</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C21" s="20"/>
     </row>
@@ -1015,7 +1048,7 @@
         <v>94</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C22" s="20"/>
     </row>
@@ -1155,7 +1188,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1163,7 +1196,7 @@
         <v>35</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1179,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1187,7 +1220,7 @@
         <v>46</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1195,7 +1228,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,7 +1236,7 @@
         <v>48</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1219,7 +1252,7 @@
         <v>49</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1246,491 +1279,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:V111"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U55" sqref="U55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="29"/>
-      <c r="N1" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="N3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="T3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="N4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="T4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="N5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="N6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:U1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:V111"/>
@@ -2205,12 +1753,551 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="18.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="29"/>
+      <c r="N1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:V111"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
@@ -3180,8 +3267,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3316,14 +3403,20 @@
         <v>98</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="Q3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="R3" s="7"/>
+      <c r="R3" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
@@ -3408,14 +3501,20 @@
         <v>98</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="R5" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -3477,11 +3576,21 @@
       <c r="L7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="N7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
@@ -3846,30 +3955,44 @@
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -3878,30 +4001,50 @@
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -3910,7 +4053,9 @@
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
@@ -3920,14 +4065,24 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="O5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -3943,14 +4098,24 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
@@ -3966,12 +4131,24 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
     </row>
@@ -3987,7 +4164,9 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -4008,7 +4187,9 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
@@ -4029,7 +4210,9 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -4050,7 +4233,9 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -4071,7 +4256,9 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -4092,7 +4279,9 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -4113,7 +4302,9 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -4134,7 +4325,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -4155,7 +4348,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -4176,7 +4371,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -4330,25 +4527,37 @@
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -4360,25 +4569,43 @@
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -4395,14 +4622,24 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="O5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
     </row>
@@ -4418,14 +4655,24 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
     </row>
@@ -4441,7 +4688,9 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -4462,7 +4711,9 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -4483,7 +4734,9 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
@@ -4504,7 +4757,9 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -4525,7 +4780,9 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -4546,7 +4803,9 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -4567,7 +4826,9 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -4588,7 +4849,9 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -4609,7 +4872,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -4630,7 +4895,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -4651,7 +4918,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -5198,8 +5467,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3:AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5221,8 +5490,7 @@
     <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
     <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
     <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
-    <col min="23" max="23" width="7" style="6" customWidth="1"/>
-    <col min="24" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
     <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
     <col min="29" max="29" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -5344,25 +5612,33 @@
       <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="7"/>
+      <c r="R3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="7"/>
+      <c r="V3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AC3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="7"/>
+      <c r="AD3" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -5379,25 +5655,33 @@
       <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="7"/>
+      <c r="R4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AC4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="7"/>
+      <c r="AD4" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
@@ -5414,20 +5698,26 @@
       <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O5" s="9" t="s">
         <v>96</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="7"/>
+      <c r="R5" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
       <c r="AC5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD5" s="7"/>
+      <c r="AD5" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
@@ -5444,13 +5734,17 @@
       <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O6" s="9" t="s">
         <v>96</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="7"/>
+      <c r="R6" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
@@ -5470,7 +5764,9 @@
       <c r="L7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -5494,7 +5790,9 @@
       <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -5518,7 +5816,9 @@
       <c r="L9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
@@ -5542,7 +5842,9 @@
       <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
@@ -5566,7 +5868,9 @@
       <c r="L11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
@@ -5590,7 +5894,9 @@
       <c r="L12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -5614,7 +5920,9 @@
       <c r="L13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -5638,7 +5946,9 @@
       <c r="L14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -5662,7 +5972,9 @@
       <c r="L15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -5686,7 +5998,9 @@
       <c r="L16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -5710,7 +6024,9 @@
       <c r="L17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -5959,7 +6275,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AD111"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC3" sqref="AC3:AC5"/>
     </sheetView>
   </sheetViews>
@@ -6104,25 +6420,33 @@
       <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="7"/>
+      <c r="R3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="7"/>
+      <c r="V3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AC3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="7"/>
+      <c r="AD3" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -6139,25 +6463,33 @@
       <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="7"/>
+      <c r="R4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AC4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="7"/>
+      <c r="AD4" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
@@ -6174,20 +6506,26 @@
       <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O5" s="9" t="s">
         <v>96</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="7"/>
+      <c r="R5" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
       <c r="AC5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD5" s="7"/>
+      <c r="AD5" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
@@ -6204,13 +6542,17 @@
       <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O6" s="9" t="s">
         <v>96</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="7"/>
+      <c r="R6" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
@@ -6230,7 +6572,9 @@
       <c r="L7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -6254,7 +6598,9 @@
       <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -6278,7 +6624,9 @@
       <c r="L9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
@@ -6302,7 +6650,9 @@
       <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
@@ -6326,7 +6676,9 @@
       <c r="L11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
@@ -6350,7 +6702,9 @@
       <c r="L12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -6374,7 +6728,9 @@
       <c r="L13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -6398,7 +6754,9 @@
       <c r="L14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -6422,7 +6780,9 @@
       <c r="L15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -6446,7 +6806,9 @@
       <c r="L16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -6470,7 +6832,9 @@
       <c r="L17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -6850,26 +7214,40 @@
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="7"/>
+      <c r="R3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="U3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="7"/>
+      <c r="V3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="W3" s="6" t="s">
         <v>37</v>
       </c>
@@ -6885,26 +7263,40 @@
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="7"/>
+      <c r="R4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="U4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
@@ -6921,14 +7313,20 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O5" s="9" t="s">
         <v>96</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="7"/>
+      <c r="R5" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
@@ -6945,14 +7343,20 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O6" s="9" t="s">
         <v>96</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="7"/>
+      <c r="R6" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
@@ -6969,8 +7373,12 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -6991,8 +7399,12 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -7013,8 +7425,12 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
@@ -7035,8 +7451,12 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
@@ -7057,8 +7477,12 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
@@ -7079,8 +7503,12 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -7101,8 +7529,12 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -7123,8 +7555,12 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -7145,8 +7581,12 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -7167,8 +7607,12 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -7189,8 +7633,12 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -7226,7 +7674,7 @@
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E9"/>
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7345,36 +7793,52 @@
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="E3" s="25" t="s">
         <v>81</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>37</v>
       </c>
@@ -7383,36 +7847,52 @@
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="E4" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
+      <c r="Q4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
@@ -7421,11 +7901,15 @@
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="E5" s="25" t="s">
         <v>83</v>
       </c>
@@ -7437,13 +7921,17 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N5" s="9" t="s">
         <v>96</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="R5" s="7"/>
       <c r="T5" s="9"/>
       <c r="U5" s="7"/>
@@ -7452,7 +7940,9 @@
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
@@ -7466,13 +7956,17 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N6" s="9" t="s">
         <v>96</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="R6" s="7"/>
       <c r="T6" s="9"/>
       <c r="U6" s="7"/>
@@ -7493,7 +7987,9 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -7518,7 +8014,9 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -7543,7 +8041,9 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
@@ -7566,7 +8066,9 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -7589,7 +8091,9 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
@@ -7612,7 +8116,9 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -7635,7 +8141,9 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
@@ -7658,7 +8166,9 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -7681,7 +8191,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -7704,7 +8216,9 @@
       <c r="K16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -7727,7 +8241,9 @@
       <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
